--- a/template-generator/USDM_Test_Data_Template.xlsx
+++ b/template-generator/USDM_Test_Data_Template.xlsx
@@ -1095,6 +1095,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1166,7 +1169,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>

--- a/template-generator/USDM_Test_Data_Template.xlsx
+++ b/template-generator/USDM_Test_Data_Template.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="561">
   <si>
     <t>Filename</t>
   </si>
@@ -249,6 +249,57 @@
     <t>studyIdentifierScope.organizationIdentifierScheme</t>
   </si>
   <si>
+    <t>studyIdentifierScope.organizationLegalAddress.id</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.text</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.line</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.district</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.city</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.postalCode</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.state</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.country.id</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.country.code</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.country.codeSystem</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.country.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.organizationLegalAddress.country.decode</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.type.id</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.type.code</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.type.codeSystem</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.type.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope.type.decode</t>
+  </si>
+  <si>
     <t>Organization Name</t>
   </si>
   <si>
@@ -261,6 +312,24 @@
     <t>Identifier Provider Organization Name</t>
   </si>
   <si>
+    <t>Address Full Text</t>
+  </si>
+  <si>
+    <t>Address Line</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>Organization.xpt</t>
   </si>
   <si>
@@ -294,6 +363,21 @@
     <t>organizationLegalAddress.state</t>
   </si>
   <si>
+    <t>organizationLegalAddress.country.id</t>
+  </si>
+  <si>
+    <t>organizationLegalAddress.country.code</t>
+  </si>
+  <si>
+    <t>organizationLegalAddress.country.codeSystem</t>
+  </si>
+  <si>
+    <t>organizationLegalAddress.country.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>organizationLegalAddress.country.decode</t>
+  </si>
+  <si>
     <t>type.id</t>
   </si>
   <si>
@@ -309,24 +393,6 @@
     <t>type.decode</t>
   </si>
   <si>
-    <t>Address Full Text</t>
-  </si>
-  <si>
-    <t>Address Line</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Organization Type</t>
   </si>
   <si>
@@ -390,6 +456,24 @@
     <t>documentVersion.protocolVersion</t>
   </si>
   <si>
+    <t>documentVersion.protocolStatus.id</t>
+  </si>
+  <si>
+    <t>documentVersion.protocolStatus.code</t>
+  </si>
+  <si>
+    <t>documentVersion.protocolStatus.codeSystem</t>
+  </si>
+  <si>
+    <t>documentVersion.protocolStatus.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>documentVersion.protocolStatus.decode</t>
+  </si>
+  <si>
+    <t>documentVersion.childIds</t>
+  </si>
+  <si>
     <t>Study Design Name</t>
   </si>
   <si>
@@ -1092,6 +1176,21 @@
     <t>bcReference</t>
   </si>
   <si>
+    <t>code.standardCode.id</t>
+  </si>
+  <si>
+    <t>code.standardCode.code</t>
+  </si>
+  <si>
+    <t>code.standardCode.codeSystem</t>
+  </si>
+  <si>
+    <t>code.standardCode.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>code.standardCode.decode</t>
+  </si>
+  <si>
     <t>Biomedical Concept Name</t>
   </si>
   <si>
@@ -1524,6 +1623,21 @@
     <t>primaryReason.otherReason</t>
   </si>
   <si>
+    <t>primaryReason.code.id</t>
+  </si>
+  <si>
+    <t>primaryReason.code.code</t>
+  </si>
+  <si>
+    <t>primaryReason.code.codeSystem</t>
+  </si>
+  <si>
+    <t>primaryReason.code.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>primaryReason.code.decode</t>
+  </si>
+  <si>
     <t>Study Amendment Number</t>
   </si>
   <si>
@@ -1567,6 +1681,21 @@
   </si>
   <si>
     <t>studyPhase.id</t>
+  </si>
+  <si>
+    <t>studyPhase.standardCode.id</t>
+  </si>
+  <si>
+    <t>studyPhase.standardCode.code</t>
+  </si>
+  <si>
+    <t>studyPhase.standardCode.codeSystem</t>
+  </si>
+  <si>
+    <t>studyPhase.standardCode.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>studyPhase.standardCode.decode</t>
   </si>
   <si>
     <t>Study Title</t>
@@ -2045,450 +2174,450 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B26" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C26" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="B27" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B28" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="C28" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="B30" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="C31" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="B32" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="C32" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="B33" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="C33" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="B34" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="C34" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="B35" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C35" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="C36" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="C37" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="B39" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="C39" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="B40" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="C40" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B41" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C41" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="B42" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="C42" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="B43" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="C43" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="B44" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="C44" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="B45" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="C45" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -2576,37 +2705,37 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2621,32 +2750,32 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>48</v>
@@ -2699,7 +2828,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>20</v>
@@ -2832,40 +2961,40 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2880,35 +3009,35 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>48</v>
@@ -2961,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>20</v>
@@ -3092,13 +3221,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3130,13 +3259,13 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3210,37 +3339,37 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3255,19 +3384,19 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>48</v>
@@ -3282,7 +3411,7 @@
         <v>51</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>48</v>
@@ -3468,25 +3597,25 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3501,16 +3630,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>48</v>
@@ -3565,10 +3694,10 @@
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3670,34 +3799,34 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3712,39 +3841,39 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3911,7 +4040,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3926,16 +4055,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4039,73 +4168,73 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -4120,16 +4249,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>48</v>
@@ -4144,7 +4273,7 @@
         <v>51</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>48</v>
@@ -4160,30 +4289,30 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
@@ -4256,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>20</v>
@@ -4274,10 +4403,10 @@
         <v>20</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -4443,28 +4572,28 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4479,19 +4608,19 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4523,28 +4652,28 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4650,28 +4779,28 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4686,25 +4815,25 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>48</v>
@@ -4745,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>20</v>
@@ -4986,28 +5115,28 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -5022,20 +5151,20 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5072,10 +5201,10 @@
         <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5160,7 +5289,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -5184,16 +5313,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5297,7 +5426,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5312,16 +5441,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5416,16 +5545,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5544,19 +5673,19 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5683,37 +5812,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5728,25 +5857,25 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>48</v>
@@ -5879,16 +6008,16 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -5908,16 +6037,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>299</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -5929,22 +6073,35 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>381</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -5972,8 +6129,23 @@
       <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -6001,161 +6173,23 @@
       <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="11" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6166,6 +6200,227 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6197,22 +6452,22 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6227,10 +6482,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>48</v>
@@ -6259,7 +6514,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -6360,7 +6615,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6375,16 +6630,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6673,16 +6928,16 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="16" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -6705,16 +6960,31 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="N1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -6726,21 +6996,34 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -6766,13 +7049,28 @@
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -6798,13 +7096,28 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6815,6 +7128,11 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6846,22 +7164,22 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6896,22 +7214,22 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6988,19 +7306,19 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7019,7 +7337,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7036,19 +7354,19 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7130,13 +7448,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7151,19 +7469,19 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -7193,10 +7511,10 @@
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7358,52 +7676,52 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7418,28 +7736,28 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>48</v>
@@ -7454,7 +7772,7 @@
         <v>51</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>48</v>
@@ -7536,10 +7854,10 @@
         <v>20</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7671,16 +7989,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7695,16 +8013,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -7734,7 +8052,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7816,7 +8134,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7831,16 +8149,16 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7866,7 +8184,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7944,46 +8262,46 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -7998,35 +8316,35 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>48</v>
@@ -8081,7 +8399,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>20</v>
@@ -8102,10 +8420,10 @@
         <v>20</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -8235,22 +8553,22 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8265,19 +8583,19 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>48</v>
@@ -8315,7 +8633,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>20</v>
@@ -8396,16 +8714,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="28" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -8436,8 +8754,59 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -8453,1253 +8822,64 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="11" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="11" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="8" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="21" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="11" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="12" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="21" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -9760,8 +8940,29 @@
       <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -9778,22 +8979,22 @@
         <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>22</v>
@@ -9808,10 +9009,10 @@
         <v>22</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>21</v>
@@ -9822,324 +9023,6 @@
       <c r="T4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="25" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
@@ -10152,8 +9035,17 @@
       <c r="X4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -10178,6 +9070,2110 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="11" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="32" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="17" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="26" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="31" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10224,7 +11220,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10319,13 +11315,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10345,7 +11341,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
@@ -10422,13 +11418,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10443,22 +11439,22 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10484,7 +11480,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>20</v>
